--- a/data_laliga.xlsx
+++ b/data_laliga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\scraping-fbref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DF4BD-1441-418C-8B7B-537448F878A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73BA27-5114-4D48-A2E1-860669A13EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A849913D-DB3F-48F1-962A-E276E1C79D00}"/>
   </bookViews>
@@ -177,11 +177,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -511,15 +507,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B556F02F-2387-42FB-BA27-B40BDFFFEB2B}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -550,11 +556,11 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -585,11 +591,11 @@
       <c r="J2">
         <v>2.7894736842105261</v>
       </c>
-      <c r="K2">
+      <c r="R2">
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -620,11 +626,11 @@
       <c r="J3">
         <v>1.6842105263157894</v>
       </c>
-      <c r="K3">
+      <c r="R3">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -655,11 +661,11 @@
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="R4">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -690,11 +696,11 @@
       <c r="J5">
         <v>1.6842105263157894</v>
       </c>
-      <c r="K5">
+      <c r="R5">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -725,11 +731,11 @@
       <c r="J6">
         <v>1.9473684210526316</v>
       </c>
-      <c r="K6">
+      <c r="R6">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -760,11 +766,11 @@
       <c r="J7">
         <v>2.2105263157894739</v>
       </c>
-      <c r="K7">
+      <c r="R7">
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -795,11 +801,11 @@
       <c r="J8">
         <v>2.263157894736842</v>
       </c>
-      <c r="K8">
+      <c r="R8">
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -830,11 +836,11 @@
       <c r="J9">
         <v>2.8684210526315788</v>
       </c>
-      <c r="K9">
+      <c r="R9">
         <v>0.18421052631578946</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -865,11 +871,11 @@
       <c r="J10">
         <v>1.9736842105263157</v>
       </c>
-      <c r="K10">
+      <c r="R10">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -900,11 +906,11 @@
       <c r="J11">
         <v>2.8157894736842106</v>
       </c>
-      <c r="K11">
+      <c r="R11">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -935,11 +941,11 @@
       <c r="J12">
         <v>2.1578947368421053</v>
       </c>
-      <c r="K12">
+      <c r="R12">
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -970,11 +976,11 @@
       <c r="J13">
         <v>2.1052631578947367</v>
       </c>
-      <c r="K13">
+      <c r="R13">
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1005,11 +1011,11 @@
       <c r="J14">
         <v>2.263157894736842</v>
       </c>
-      <c r="K14">
+      <c r="R14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1040,11 +1046,11 @@
       <c r="J15">
         <v>2.5263157894736841</v>
       </c>
-      <c r="K15">
+      <c r="R15">
         <v>7.8947368421052627E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1075,11 +1081,11 @@
       <c r="J16">
         <v>1.5</v>
       </c>
-      <c r="K16">
+      <c r="R16">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1110,11 +1116,11 @@
       <c r="J17">
         <v>2.236842105263158</v>
       </c>
-      <c r="K17">
+      <c r="R17">
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1145,11 +1151,11 @@
       <c r="J18">
         <v>2.5526315789473686</v>
       </c>
-      <c r="K18">
+      <c r="R18">
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1180,11 +1186,11 @@
       <c r="J19">
         <v>2.236842105263158</v>
       </c>
-      <c r="K19">
+      <c r="R19">
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1215,11 +1221,11 @@
       <c r="J20">
         <v>2.4473684210526314</v>
       </c>
-      <c r="K20">
+      <c r="R20">
         <v>0.13157894736842105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1256,7 @@
       <c r="J21">
         <v>2.5526315789473686</v>
       </c>
-      <c r="K21">
+      <c r="R21">
         <v>0.10526315789473684</v>
       </c>
     </row>
